--- a/output/KADIMA_09441308000147.xlsx
+++ b/output/KADIMA_09441308000147.xlsx
@@ -2066,10 +2066,10 @@
         <v>44165</v>
       </c>
       <c r="B153">
-        <v>2.70322382</v>
+        <v>2.70396466</v>
       </c>
       <c r="C153">
-        <v>-0.005299750436115302</v>
+        <v>-0.005100757945057377</v>
       </c>
     </row>
   </sheetData>

--- a/output/KADIMA_09441308000147.xlsx
+++ b/output/KADIMA_09441308000147.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>KADIMA II FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39568</v>
       </c>
@@ -411,1665 +405,1212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39599</v>
       </c>
       <c r="B3">
         <v>0.02246522999999989</v>
       </c>
-      <c r="C3">
-        <v>0.02246522999999989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39629</v>
       </c>
       <c r="B4">
-        <v>0.02832711999999993</v>
-      </c>
-      <c r="C4">
         <v>0.005733094708756159</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39660</v>
       </c>
       <c r="B5">
-        <v>0.04289381000000003</v>
-      </c>
-      <c r="C5">
         <v>0.01416542432528689</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39691</v>
       </c>
       <c r="B6">
-        <v>0.0717362800000001</v>
-      </c>
-      <c r="C6">
         <v>0.02765619061445967</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39721</v>
       </c>
       <c r="B7">
-        <v>0.09176015999999998</v>
-      </c>
-      <c r="C7">
         <v>0.01868358883959753</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39752</v>
       </c>
       <c r="B8">
-        <v>0.1309890600000001</v>
-      </c>
-      <c r="C8">
         <v>0.03593179293151727</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39782</v>
       </c>
       <c r="B9">
-        <v>0.14876526</v>
-      </c>
-      <c r="C9">
         <v>0.01571739341139144</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39813</v>
       </c>
       <c r="B10">
-        <v>0.1663781799999999</v>
-      </c>
-      <c r="C10">
         <v>0.01533204442481129</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39844</v>
       </c>
       <c r="B11">
-        <v>0.1729833199999999</v>
-      </c>
-      <c r="C11">
         <v>0.005662948873066176</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39872</v>
       </c>
       <c r="B12">
-        <v>0.1766589000000001</v>
-      </c>
-      <c r="C12">
         <v>0.003133531344674312</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39903</v>
       </c>
       <c r="B13">
-        <v>0.1822389</v>
-      </c>
-      <c r="C13">
         <v>0.004742240933204966</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39933</v>
       </c>
       <c r="B14">
-        <v>0.2144552</v>
-      </c>
-      <c r="C14">
         <v>0.02725024527614517</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39964</v>
       </c>
       <c r="B15">
-        <v>0.2391385100000001</v>
-      </c>
-      <c r="C15">
         <v>0.02032459492947969</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39994</v>
       </c>
       <c r="B16">
-        <v>0.25790734</v>
-      </c>
-      <c r="C16">
         <v>0.01514667637922096</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40025</v>
       </c>
       <c r="B17">
-        <v>0.24930907</v>
-      </c>
-      <c r="C17">
         <v>-0.006835376284552108</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40056</v>
       </c>
       <c r="B18">
-        <v>0.2538669099999999</v>
-      </c>
-      <c r="C18">
         <v>0.003648288569616964</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40086</v>
       </c>
       <c r="B19">
-        <v>0.266613</v>
-      </c>
-      <c r="C19">
         <v>0.01016542497321349</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40117</v>
       </c>
       <c r="B20">
-        <v>0.2809194100000001</v>
-      </c>
-      <c r="C20">
         <v>0.01129501276238298</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40147</v>
       </c>
       <c r="B21">
-        <v>0.2919897</v>
-      </c>
-      <c r="C21">
         <v>0.008642456280680388</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40178</v>
       </c>
       <c r="B22">
-        <v>0.2903714399999999</v>
-      </c>
-      <c r="C22">
         <v>-0.001252533205179596</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40209</v>
       </c>
       <c r="B23">
-        <v>0.30068936</v>
-      </c>
-      <c r="C23">
         <v>0.007996085220237203</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40237</v>
       </c>
       <c r="B24">
-        <v>0.3279615199999999</v>
-      </c>
-      <c r="C24">
         <v>0.02096746605200184</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40268</v>
       </c>
       <c r="B25">
-        <v>0.34019</v>
-      </c>
-      <c r="C25">
         <v>0.0092084595945221</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40298</v>
       </c>
       <c r="B26">
-        <v>0.3516256600000001</v>
-      </c>
-      <c r="C26">
         <v>0.008532864743058921</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40329</v>
       </c>
       <c r="B27">
-        <v>0.37227641</v>
-      </c>
-      <c r="C27">
         <v>0.01527845365113878</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40359</v>
       </c>
       <c r="B28">
-        <v>0.3773766300000001</v>
-      </c>
-      <c r="C28">
         <v>0.003716612748593473</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40390</v>
       </c>
       <c r="B29">
-        <v>0.38465554</v>
-      </c>
-      <c r="C29">
         <v>0.005284618485214221</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40421</v>
       </c>
       <c r="B30">
-        <v>0.40740942</v>
-      </c>
-      <c r="C30">
         <v>0.01643288120596398</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40451</v>
       </c>
       <c r="B31">
-        <v>0.42601205</v>
-      </c>
-      <c r="C31">
         <v>0.01321763925667052</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40482</v>
       </c>
       <c r="B32">
-        <v>0.4396578600000001</v>
-      </c>
-      <c r="C32">
         <v>0.009569210863260347</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40512</v>
       </c>
       <c r="B33">
-        <v>0.4497529</v>
-      </c>
-      <c r="C33">
         <v>0.007012110502421676</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40543</v>
       </c>
       <c r="B34">
-        <v>0.4643936900000001</v>
-      </c>
-      <c r="C34">
         <v>0.01009881752952535</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40574</v>
       </c>
       <c r="B35">
-        <v>0.4773825300000001</v>
-      </c>
-      <c r="C35">
         <v>0.00886977326431948</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40602</v>
       </c>
       <c r="B36">
-        <v>0.4793061999999999</v>
-      </c>
-      <c r="C36">
         <v>0.001302079834394565</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40633</v>
       </c>
       <c r="B37">
-        <v>0.48965831</v>
-      </c>
-      <c r="C37">
         <v>0.006997949444138118</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40663</v>
       </c>
       <c r="B38">
-        <v>0.4925502500000001</v>
-      </c>
-      <c r="C38">
         <v>0.001941344522154331</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40694</v>
       </c>
       <c r="B39">
-        <v>0.4969636500000001</v>
-      </c>
-      <c r="C39">
         <v>0.00295695237061544</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40724</v>
       </c>
       <c r="B40">
-        <v>0.5153072700000001</v>
-      </c>
-      <c r="C40">
         <v>0.01225388472191691</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40755</v>
       </c>
       <c r="B41">
-        <v>0.5214886599999999</v>
-      </c>
-      <c r="C41">
         <v>0.004079298055502445</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40786</v>
       </c>
       <c r="B42">
-        <v>0.5513949300000001</v>
-      </c>
-      <c r="C42">
         <v>0.01965592697877883</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40816</v>
       </c>
       <c r="B43">
-        <v>0.5677779999999999</v>
-      </c>
-      <c r="C43">
         <v>0.01056021886058356</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40847</v>
       </c>
       <c r="B44">
-        <v>0.5859953499999999</v>
-      </c>
-      <c r="C44">
         <v>0.0116198530659315</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40877</v>
       </c>
       <c r="B45">
-        <v>0.59375814</v>
-      </c>
-      <c r="C45">
         <v>0.004894585598879786</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40908</v>
       </c>
       <c r="B46">
-        <v>0.59313919</v>
-      </c>
-      <c r="C46">
         <v>-0.000388358800790245</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40939</v>
       </c>
       <c r="B47">
-        <v>0.5947244199999999</v>
-      </c>
-      <c r="C47">
         <v>0.0009950354683070373</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40968</v>
       </c>
       <c r="B48">
-        <v>0.6098392100000001</v>
-      </c>
-      <c r="C48">
         <v>0.009477994950375379</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40999</v>
       </c>
       <c r="B49">
-        <v>0.6234921899999999</v>
-      </c>
-      <c r="C49">
         <v>0.008480958790909154</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41029</v>
       </c>
       <c r="B50">
-        <v>0.6182541699999999</v>
-      </c>
-      <c r="C50">
         <v>-0.003226390636347887</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41060</v>
       </c>
       <c r="B51">
-        <v>0.65389915</v>
-      </c>
-      <c r="C51">
         <v>0.02202681177086041</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41090</v>
       </c>
       <c r="B52">
-        <v>0.6740120599999999</v>
-      </c>
-      <c r="C52">
         <v>0.0121609047323108</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41121</v>
       </c>
       <c r="B53">
-        <v>0.6672656699999999</v>
-      </c>
-      <c r="C53">
         <v>-0.004030072519310313</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41152</v>
       </c>
       <c r="B54">
-        <v>0.6900258399999999</v>
-      </c>
-      <c r="C54">
         <v>0.01365119573295126</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41182</v>
       </c>
       <c r="B55">
-        <v>0.6843941499999999</v>
-      </c>
-      <c r="C55">
         <v>-0.003332309995922933</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41213</v>
       </c>
       <c r="B56">
-        <v>0.67442092</v>
-      </c>
-      <c r="C56">
         <v>-0.005920959770609469</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41243</v>
       </c>
       <c r="B57">
-        <v>0.68521476</v>
-      </c>
-      <c r="C57">
         <v>0.006446312197293969</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41274</v>
       </c>
       <c r="B58">
-        <v>0.7193211799999999</v>
-      </c>
-      <c r="C58">
         <v>0.0202386193199493</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41305</v>
       </c>
       <c r="B59">
-        <v>0.7172836899999999</v>
-      </c>
-      <c r="C59">
         <v>-0.001185054906378769</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41333</v>
       </c>
       <c r="B60">
-        <v>0.7326639100000001</v>
-      </c>
-      <c r="C60">
         <v>0.008956132344097645</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41364</v>
       </c>
       <c r="B61">
-        <v>0.74021268</v>
-      </c>
-      <c r="C61">
         <v>0.004356742214362885</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41394</v>
       </c>
       <c r="B62">
-        <v>0.7692869600000001</v>
-      </c>
-      <c r="C62">
         <v>0.01670731418874616</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41425</v>
       </c>
       <c r="B63">
-        <v>0.7508337700000001</v>
-      </c>
-      <c r="C63">
         <v>-0.01042973266473401</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41455</v>
       </c>
       <c r="B64">
-        <v>0.7349196099999999</v>
-      </c>
-      <c r="C64">
         <v>-0.009089475124757329</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41486</v>
       </c>
       <c r="B65">
-        <v>0.7348276</v>
-      </c>
-      <c r="C65">
         <v>-5.303415758839414e-05</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41517</v>
       </c>
       <c r="B66">
-        <v>0.7835792399999999</v>
-      </c>
-      <c r="C66">
         <v>0.02810172030926861</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41547</v>
       </c>
       <c r="B67">
-        <v>0.8483702200000001</v>
-      </c>
-      <c r="C67">
         <v>0.03632638155173873</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41578</v>
       </c>
       <c r="B68">
-        <v>0.8399062500000001</v>
-      </c>
-      <c r="C68">
         <v>-0.004579152979428569</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41608</v>
       </c>
       <c r="B69">
-        <v>0.84750634</v>
-      </c>
-      <c r="C69">
         <v>0.004130694159009352</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41639</v>
       </c>
       <c r="B70">
-        <v>0.8732153600000001</v>
-      </c>
-      <c r="C70">
         <v>0.01391552464171797</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41670</v>
       </c>
       <c r="B71">
-        <v>0.8789103899999999</v>
-      </c>
-      <c r="C71">
         <v>0.003040243061000591</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41698</v>
       </c>
       <c r="B72">
-        <v>0.92620726</v>
-      </c>
-      <c r="C72">
         <v>0.0251724990461093</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>41729</v>
       </c>
       <c r="B73">
-        <v>0.9519003100000001</v>
-      </c>
-      <c r="C73">
         <v>0.01333867363785157</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41759</v>
       </c>
       <c r="B74">
-        <v>0.9624317899999999</v>
-      </c>
-      <c r="C74">
         <v>0.005395500961829169</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41790</v>
       </c>
       <c r="B75">
-        <v>0.9581592299999999</v>
-      </c>
-      <c r="C75">
         <v>-0.002177176308380102</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41820</v>
       </c>
       <c r="B76">
-        <v>0.97307213</v>
-      </c>
-      <c r="C76">
         <v>0.007615774943899867</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41851</v>
       </c>
       <c r="B77">
-        <v>0.9742762899999999</v>
-      </c>
-      <c r="C77">
         <v>0.000610296999126847</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41882</v>
       </c>
       <c r="B78">
-        <v>0.99903287</v>
-      </c>
-      <c r="C78">
         <v>0.01253957215886947</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41912</v>
       </c>
       <c r="B79">
-        <v>0.97186168</v>
-      </c>
-      <c r="C79">
         <v>-0.01359216769657223</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41943</v>
       </c>
       <c r="B80">
-        <v>1.0032456</v>
-      </c>
-      <c r="C80">
         <v>0.01591588310595915</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41973</v>
       </c>
       <c r="B81">
-        <v>1.05425411</v>
-      </c>
-      <c r="C81">
         <v>0.02546293375110875</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42004</v>
       </c>
       <c r="B82">
-        <v>1.08989639</v>
-      </c>
-      <c r="C82">
         <v>0.01735047277086865</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42035</v>
       </c>
       <c r="B83">
-        <v>1.08397027</v>
-      </c>
-      <c r="C83">
         <v>-0.0028356046875605</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42063</v>
       </c>
       <c r="B84">
-        <v>1.13242563</v>
-      </c>
-      <c r="C84">
         <v>0.02325146413916945</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42094</v>
       </c>
       <c r="B85">
-        <v>1.19711356</v>
-      </c>
-      <c r="C85">
         <v>0.03033537446274259</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42124</v>
       </c>
       <c r="B86">
-        <v>1.2172676</v>
-      </c>
-      <c r="C86">
         <v>0.009172962366132742</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42155</v>
       </c>
       <c r="B87">
-        <v>1.24175809</v>
-      </c>
-      <c r="C87">
         <v>0.01104534698473003</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42185</v>
       </c>
       <c r="B88">
-        <v>1.22989018</v>
-      </c>
-      <c r="C88">
         <v>-0.005294019034854824</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42216</v>
       </c>
       <c r="B89">
-        <v>1.24961772</v>
-      </c>
-      <c r="C89">
         <v>0.008846866171678514</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42247</v>
       </c>
       <c r="B90">
-        <v>1.26859585</v>
-      </c>
-      <c r="C90">
         <v>0.008436157766396057</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42277</v>
       </c>
       <c r="B91">
-        <v>1.35658456</v>
-      </c>
-      <c r="C91">
         <v>0.0387855377589621</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42308</v>
       </c>
       <c r="B92">
-        <v>1.36993309</v>
-      </c>
-      <c r="C92">
         <v>0.005664354348481337</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42338</v>
       </c>
       <c r="B93">
-        <v>1.40841899</v>
-      </c>
-      <c r="C93">
         <v>0.01623923483848233</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42369</v>
       </c>
       <c r="B94">
-        <v>1.43599984</v>
-      </c>
-      <c r="C94">
         <v>0.01145184874995531</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42400</v>
       </c>
       <c r="B95">
-        <v>1.48291781</v>
-      </c>
-      <c r="C95">
         <v>0.01926025167555023</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42429</v>
       </c>
       <c r="B96">
-        <v>1.48863654</v>
-      </c>
-      <c r="C96">
         <v>0.002303229682822261</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42460</v>
       </c>
       <c r="B97">
-        <v>1.6145572</v>
-      </c>
-      <c r="C97">
         <v>0.05059825248728367</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42490</v>
       </c>
       <c r="B98">
-        <v>1.66426728</v>
-      </c>
-      <c r="C98">
         <v>0.01901281027624857</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42521</v>
       </c>
       <c r="B99">
-        <v>1.66001236</v>
-      </c>
-      <c r="C99">
         <v>-0.001597031961447892</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42551</v>
       </c>
       <c r="B100">
-        <v>1.69335703</v>
-      </c>
-      <c r="C100">
         <v>0.01253553197775359</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42582</v>
       </c>
       <c r="B101">
-        <v>1.64588075</v>
-      </c>
-      <c r="C101">
         <v>-0.01762717659455648</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42613</v>
       </c>
       <c r="B102">
-        <v>1.6071344</v>
-      </c>
-      <c r="C102">
         <v>-0.01464402732436065</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42643</v>
       </c>
       <c r="B103">
-        <v>1.62177398</v>
-      </c>
-      <c r="C103">
         <v>0.005615199584647401</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42674</v>
       </c>
       <c r="B104">
-        <v>1.64087903</v>
-      </c>
-      <c r="C104">
         <v>0.007287069803019408</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42704</v>
       </c>
       <c r="B105">
-        <v>1.61156406</v>
-      </c>
-      <c r="C105">
         <v>-0.01110045922853187</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42735</v>
       </c>
       <c r="B106">
-        <v>1.69465752</v>
-      </c>
-      <c r="C106">
         <v>0.03181750785772408</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42766</v>
       </c>
       <c r="B107">
-        <v>1.74714454</v>
-      </c>
-      <c r="C107">
         <v>0.01947817843656807</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42794</v>
       </c>
       <c r="B108">
-        <v>1.74611806</v>
-      </c>
-      <c r="C108">
         <v>-0.0003736534372522637</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42825</v>
       </c>
       <c r="B109">
-        <v>1.77711</v>
-      </c>
-      <c r="C109">
         <v>0.01128572746067591</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42855</v>
       </c>
       <c r="B110">
-        <v>1.75605503</v>
-      </c>
-      <c r="C110">
         <v>-0.00758161181948136</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42886</v>
       </c>
       <c r="B111">
-        <v>1.89340748</v>
-      </c>
-      <c r="C111">
         <v>0.04983661374860127</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42916</v>
       </c>
       <c r="B112">
-        <v>1.93482624</v>
-      </c>
-      <c r="C112">
         <v>0.0143148727879836</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42947</v>
       </c>
       <c r="B113">
-        <v>2.03614306</v>
-      </c>
-      <c r="C113">
         <v>0.03452225505520912</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42978</v>
       </c>
       <c r="B114">
-        <v>2.04265242</v>
-      </c>
-      <c r="C114">
         <v>0.002143956945164449</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43008</v>
       </c>
       <c r="B115">
-        <v>2.07957438</v>
-      </c>
-      <c r="C115">
         <v>0.0121347938914429</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43039</v>
       </c>
       <c r="B116">
-        <v>2.07710488</v>
-      </c>
-      <c r="C116">
         <v>-0.0008018965270130129</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43069</v>
       </c>
       <c r="B117">
-        <v>2.08071056</v>
-      </c>
-      <c r="C117">
         <v>0.001171776764398169</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43100</v>
       </c>
       <c r="B118">
-        <v>2.07785262</v>
-      </c>
-      <c r="C118">
         <v>-0.0009276885784428313</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43131</v>
       </c>
       <c r="B119">
-        <v>2.12288132</v>
-      </c>
-      <c r="C119">
         <v>0.01462990778291395</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43159</v>
       </c>
       <c r="B120">
-        <v>2.12206794</v>
-      </c>
-      <c r="C120">
         <v>-0.0002604581848150156</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43190</v>
       </c>
       <c r="B121">
-        <v>2.1406957</v>
-      </c>
-      <c r="C121">
         <v>0.005966481305976989</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43220</v>
       </c>
       <c r="B122">
-        <v>2.16663345</v>
-      </c>
-      <c r="C122">
         <v>0.0082586001566467</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43251</v>
       </c>
       <c r="B123">
-        <v>2.1948255</v>
-      </c>
-      <c r="C123">
         <v>0.008902846017748045</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43281</v>
       </c>
       <c r="B124">
-        <v>2.22901645</v>
-      </c>
-      <c r="C124">
         <v>0.01070197730674183</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43312</v>
       </c>
       <c r="B125">
-        <v>2.23989064</v>
-      </c>
-      <c r="C125">
         <v>0.003367647755402325</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43343</v>
       </c>
       <c r="B126">
-        <v>2.32359142</v>
-      </c>
-      <c r="C126">
         <v>0.02583444606636487</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43373</v>
       </c>
       <c r="B127">
-        <v>2.33802967</v>
-      </c>
-      <c r="C127">
         <v>0.004344171161688726</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43404</v>
       </c>
       <c r="B128">
-        <v>2.42252346</v>
-      </c>
-      <c r="C128">
         <v>0.02531247422974525</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43434</v>
       </c>
       <c r="B129">
-        <v>2.44755081</v>
-      </c>
-      <c r="C129">
         <v>0.007312543008836103</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43465</v>
       </c>
       <c r="B130">
-        <v>2.42834644</v>
-      </c>
-      <c r="C130">
         <v>-0.005570438568822778</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43496</v>
       </c>
       <c r="B131">
-        <v>2.44099123</v>
-      </c>
-      <c r="C131">
         <v>0.003688305782772572</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43524</v>
       </c>
       <c r="B132">
-        <v>2.38599198</v>
-      </c>
-      <c r="C132">
         <v>-0.01598354843816319</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43555</v>
       </c>
       <c r="B133">
-        <v>2.48238588</v>
-      </c>
-      <c r="C133">
         <v>0.02846843718749725</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43585</v>
       </c>
       <c r="B134">
-        <v>2.4847499</v>
-      </c>
-      <c r="C134">
         <v>0.0006788506734929367</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43616</v>
       </c>
       <c r="B135">
-        <v>2.47133344</v>
-      </c>
-      <c r="C135">
         <v>-0.003850049611881845</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43646</v>
       </c>
       <c r="B136">
-        <v>2.49816458</v>
-      </c>
-      <c r="C136">
         <v>0.007729346795334102</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43677</v>
       </c>
       <c r="B137">
-        <v>2.48312694</v>
-      </c>
-      <c r="C137">
         <v>-0.004298722846253322</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43708</v>
       </c>
       <c r="B138">
-        <v>2.48481123</v>
-      </c>
-      <c r="C138">
         <v>0.0004835568812200375</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43738</v>
       </c>
       <c r="B139">
-        <v>2.49848471</v>
-      </c>
-      <c r="C139">
         <v>0.003923736207656736</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43769</v>
       </c>
       <c r="B140">
-        <v>2.55563537</v>
-      </c>
-      <c r="C140">
         <v>0.01633583243529446</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43799</v>
       </c>
       <c r="B141">
-        <v>2.52881513</v>
-      </c>
-      <c r="C141">
         <v>-0.007543023175630159</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43830</v>
       </c>
       <c r="B142">
-        <v>2.55362733</v>
-      </c>
-      <c r="C142">
         <v>0.007031311952009123</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43861</v>
       </c>
       <c r="B143">
-        <v>2.57918076</v>
-      </c>
-      <c r="C143">
         <v>0.007190801855972984</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43890</v>
       </c>
       <c r="B144">
-        <v>2.61852868</v>
-      </c>
-      <c r="C144">
         <v>0.0109935548491269</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43921</v>
       </c>
       <c r="B145">
-        <v>2.62310706</v>
-      </c>
-      <c r="C145">
         <v>0.00126526011118977</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43951</v>
       </c>
       <c r="B146">
-        <v>2.681025</v>
-      </c>
-      <c r="C146">
         <v>0.01598571034221652</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43982</v>
       </c>
       <c r="B147">
-        <v>2.73309652</v>
-      </c>
-      <c r="C147">
         <v>0.01414592946258186</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>44012</v>
       </c>
       <c r="B148">
-        <v>2.74929804</v>
-      </c>
-      <c r="C148">
         <v>0.004339968150622653</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>44043</v>
       </c>
       <c r="B149">
-        <v>2.78634644</v>
-      </c>
-      <c r="C149">
         <v>0.0098814230303228</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>44074</v>
       </c>
       <c r="B150">
-        <v>2.75881902</v>
-      </c>
-      <c r="C150">
         <v>-0.00727017995743684</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>44104</v>
       </c>
       <c r="B151">
-        <v>2.71831175</v>
-      </c>
-      <c r="C151">
         <v>-0.01077659493167082</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>44135</v>
       </c>
       <c r="B152">
-        <v>2.72295455</v>
-      </c>
-      <c r="C152">
         <v>0.001248631183224491</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>44165</v>
       </c>
       <c r="B153">
-        <v>2.70396466</v>
-      </c>
-      <c r="C153">
-        <v>-0.005100757945057377</v>
+        <v>-0.004867265972935408</v>
       </c>
     </row>
   </sheetData>
